--- a/data/models_reproduce/mse-corr/evaluation.xlsx
+++ b/data/models_reproduce/mse-corr/evaluation.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B47"/>
+  <dimension ref="A1:P47"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -432,6 +432,76 @@
           <t>steps</t>
         </is>
       </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>overall_mse</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>overall_mae</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>overall_r2</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>overall_pcc</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>feature_0_mse</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>feature_0_mae</t>
+        </is>
+      </c>
+      <c r="I1" t="inlineStr">
+        <is>
+          <t>feature_0_r2</t>
+        </is>
+      </c>
+      <c r="J1" t="inlineStr">
+        <is>
+          <t>feature_0_pcc</t>
+        </is>
+      </c>
+      <c r="K1" t="inlineStr">
+        <is>
+          <t>feature_0_within_tol</t>
+        </is>
+      </c>
+      <c r="L1" t="inlineStr">
+        <is>
+          <t>feature_1_mse</t>
+        </is>
+      </c>
+      <c r="M1" t="inlineStr">
+        <is>
+          <t>feature_1_mae</t>
+        </is>
+      </c>
+      <c r="N1" t="inlineStr">
+        <is>
+          <t>feature_1_r2</t>
+        </is>
+      </c>
+      <c r="O1" t="inlineStr">
+        <is>
+          <t>feature_1_pcc</t>
+        </is>
+      </c>
+      <c r="P1" t="inlineStr">
+        <is>
+          <t>feature_1_within_tol</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -440,6 +510,48 @@
       <c r="B2" t="n">
         <v>100</v>
       </c>
+      <c r="C2" t="n">
+        <v>0.0002439668460283428</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.01088273711502552</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0.9872773885726929</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0.9940008569590636</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0.0003331023908685893</v>
+      </c>
+      <c r="H2" t="n">
+        <v>0.01321106124669313</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0.9548071622848511</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0.9802576330137197</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0.9953333333333333</v>
+      </c>
+      <c r="L2" t="n">
+        <v>0.0001548312575323507</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0.008554412052035332</v>
+      </c>
+      <c r="N2" t="n">
+        <v>0.9758031368255615</v>
+      </c>
+      <c r="O2" t="n">
+        <v>0.9893381906058352</v>
+      </c>
+      <c r="P2" t="n">
+        <v>0.9996576576576577</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -448,6 +560,48 @@
       <c r="B3" t="n">
         <v>200</v>
       </c>
+      <c r="C3" t="n">
+        <v>0.0009372232016175985</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.02180115319788456</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0.951926052570343</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0.980606321730473</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0.0007280872669070959</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0.02007097564637661</v>
+      </c>
+      <c r="I3" t="n">
+        <v>0.9028596878051758</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0.9691866838049188</v>
+      </c>
+      <c r="K3" t="n">
+        <v>0.9635981308411214</v>
+      </c>
+      <c r="L3" t="n">
+        <v>0.001146359136328101</v>
+      </c>
+      <c r="M3" t="n">
+        <v>0.02353133447468281</v>
+      </c>
+      <c r="N3" t="n">
+        <v>0.8232214450836182</v>
+      </c>
+      <c r="O3" t="n">
+        <v>0.9528182876899527</v>
+      </c>
+      <c r="P3" t="n">
+        <v>0.9140336448598131</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -456,6 +610,48 @@
       <c r="B4" t="n">
         <v>300</v>
       </c>
+      <c r="C4" t="n">
+        <v>0.001411940436810255</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.02749360166490078</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.9282627105712891</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0.9718790033309819</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0.001587630249559879</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0.02904197759926319</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0.7895168662071228</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0.9319274985525997</v>
+      </c>
+      <c r="K4" t="n">
+        <v>0.8882809061488673</v>
+      </c>
+      <c r="L4" t="n">
+        <v>0.001236250507645309</v>
+      </c>
+      <c r="M4" t="n">
+        <v>0.02594522386789322</v>
+      </c>
+      <c r="N4" t="n">
+        <v>0.8117792010307312</v>
+      </c>
+      <c r="O4" t="n">
+        <v>0.942298359386575</v>
+      </c>
+      <c r="P4" t="n">
+        <v>0.9061812297734628</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -464,6 +660,48 @@
       <c r="B5" t="n">
         <v>400</v>
       </c>
+      <c r="C5" t="n">
+        <v>0.002110017696395516</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.03418474271893501</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.892156720161438</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0.9562660491965036</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0.002517260145395994</v>
+      </c>
+      <c r="H5" t="n">
+        <v>0.03702512755990028</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0.6695913672447205</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0.8811394153157468</v>
+      </c>
+      <c r="K5" t="n">
+        <v>0.8030969696969696</v>
+      </c>
+      <c r="L5" t="n">
+        <v>0.001702775130979717</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0.03134435042738914</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0.7413318157196045</v>
+      </c>
+      <c r="O5" t="n">
+        <v>0.9107179821980244</v>
+      </c>
+      <c r="P5" t="n">
+        <v>0.8613575757575758</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -472,6 +710,48 @@
       <c r="B6" t="n">
         <v>500</v>
       </c>
+      <c r="C6" t="n">
+        <v>0.001662801601924002</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.03057646006345749</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0.9142983555793762</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0.9631135476777986</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0.001776005607098341</v>
+      </c>
+      <c r="H6" t="n">
+        <v>0.03151693940162659</v>
+      </c>
+      <c r="I6" t="n">
+        <v>0.7676152586936951</v>
+      </c>
+      <c r="J6" t="n">
+        <v>0.9019177838958065</v>
+      </c>
+      <c r="K6" t="n">
+        <v>0.8719284210526316</v>
+      </c>
+      <c r="L6" t="n">
+        <v>0.001549597829580307</v>
+      </c>
+      <c r="M6" t="n">
+        <v>0.02963598445057869</v>
+      </c>
+      <c r="N6" t="n">
+        <v>0.7662954926490784</v>
+      </c>
+      <c r="O6" t="n">
+        <v>0.8963215012581299</v>
+      </c>
+      <c r="P6" t="n">
+        <v>0.8713608421052632</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -480,6 +760,48 @@
       <c r="B7" t="n">
         <v>600</v>
       </c>
+      <c r="C7" t="n">
+        <v>0.003397247986868024</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.04501202702522278</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0.8251128196716309</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0.9424525551507376</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0.004201765637844801</v>
+      </c>
+      <c r="H7" t="n">
+        <v>0.05128912627696991</v>
+      </c>
+      <c r="I7" t="n">
+        <v>0.453700065612793</v>
+      </c>
+      <c r="J7" t="n">
+        <v>0.8421697137107741</v>
+      </c>
+      <c r="K7" t="n">
+        <v>0.6649457875457876</v>
+      </c>
+      <c r="L7" t="n">
+        <v>0.002592729870229959</v>
+      </c>
+      <c r="M7" t="n">
+        <v>0.03873493149876595</v>
+      </c>
+      <c r="N7" t="n">
+        <v>0.6082326173782349</v>
+      </c>
+      <c r="O7" t="n">
+        <v>0.8439750934819651</v>
+      </c>
+      <c r="P7" t="n">
+        <v>0.7711736263736264</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -488,6 +810,48 @@
       <c r="B8" t="n">
         <v>100</v>
       </c>
+      <c r="C8" t="n">
+        <v>0.0001948159042512998</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0.01007255539298058</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0.9900252223014832</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0.9951101778820878</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0.0002578436979092658</v>
+      </c>
+      <c r="H8" t="n">
+        <v>0.01201179157942533</v>
+      </c>
+      <c r="I8" t="n">
+        <v>0.9649631977081299</v>
+      </c>
+      <c r="J8" t="n">
+        <v>0.9828633801591631</v>
+      </c>
+      <c r="K8" t="n">
+        <v>0.9998912621359223</v>
+      </c>
+      <c r="L8" t="n">
+        <v>0.0001317880960414186</v>
+      </c>
+      <c r="M8" t="n">
+        <v>0.008133320137858391</v>
+      </c>
+      <c r="N8" t="n">
+        <v>0.9793274998664856</v>
+      </c>
+      <c r="O8" t="n">
+        <v>0.9897249132274185</v>
+      </c>
+      <c r="P8" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -496,6 +860,48 @@
       <c r="B9" t="n">
         <v>200</v>
       </c>
+      <c r="C9" t="n">
+        <v>0.0006823774892836809</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0.01961065642535686</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0.9648029208183289</v>
+      </c>
+      <c r="F9" t="n">
+        <v>0.9861547707312845</v>
+      </c>
+      <c r="G9" t="n">
+        <v>0.0006970685790292919</v>
+      </c>
+      <c r="H9" t="n">
+        <v>0.02026422508060932</v>
+      </c>
+      <c r="I9" t="n">
+        <v>0.9069216251373291</v>
+      </c>
+      <c r="J9" t="n">
+        <v>0.9689277324193518</v>
+      </c>
+      <c r="K9" t="n">
+        <v>0.9790828282828283</v>
+      </c>
+      <c r="L9" t="n">
+        <v>0.00066768639953807</v>
+      </c>
+      <c r="M9" t="n">
+        <v>0.01895708963274956</v>
+      </c>
+      <c r="N9" t="n">
+        <v>0.8972508311271667</v>
+      </c>
+      <c r="O9" t="n">
+        <v>0.9650647188276221</v>
+      </c>
+      <c r="P9" t="n">
+        <v>0.9716585858585859</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
@@ -504,6 +910,48 @@
       <c r="B10" t="n">
         <v>300</v>
       </c>
+      <c r="C10" t="n">
+        <v>0.001600331394001842</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0.03057779558002949</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0.9182143211364746</v>
+      </c>
+      <c r="F10" t="n">
+        <v>0.969073613481965</v>
+      </c>
+      <c r="G10" t="n">
+        <v>0.001609473372809589</v>
+      </c>
+      <c r="H10" t="n">
+        <v>0.03020254150032997</v>
+      </c>
+      <c r="I10" t="n">
+        <v>0.7887618541717529</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0.9372586405791552</v>
+      </c>
+      <c r="K10" t="n">
+        <v>0.8748266666666666</v>
+      </c>
+      <c r="L10" t="n">
+        <v>0.001591189298778772</v>
+      </c>
+      <c r="M10" t="n">
+        <v>0.0309530533850193</v>
+      </c>
+      <c r="N10" t="n">
+        <v>0.7610048055648804</v>
+      </c>
+      <c r="O10" t="n">
+        <v>0.9331334911607381</v>
+      </c>
+      <c r="P10" t="n">
+        <v>0.8895368421052632</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
@@ -512,6 +960,48 @@
       <c r="B11" t="n">
         <v>400</v>
       </c>
+      <c r="C11" t="n">
+        <v>0.001177527708932757</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0.02607472985982895</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0.9401563405990601</v>
+      </c>
+      <c r="F11" t="n">
+        <v>0.9753354811732146</v>
+      </c>
+      <c r="G11" t="n">
+        <v>0.00138456467539072</v>
+      </c>
+      <c r="H11" t="n">
+        <v>0.02902075834572315</v>
+      </c>
+      <c r="I11" t="n">
+        <v>0.821841299533844</v>
+      </c>
+      <c r="J11" t="n">
+        <v>0.9341529844160149</v>
+      </c>
+      <c r="K11" t="n">
+        <v>0.9067131868131868</v>
+      </c>
+      <c r="L11" t="n">
+        <v>0.0009704908006824553</v>
+      </c>
+      <c r="M11" t="n">
+        <v>0.02312869764864445</v>
+      </c>
+      <c r="N11" t="n">
+        <v>0.8556398153305054</v>
+      </c>
+      <c r="O11" t="n">
+        <v>0.9497049562206992</v>
+      </c>
+      <c r="P11" t="n">
+        <v>0.9465428571428571</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
@@ -520,6 +1010,48 @@
       <c r="B12" t="n">
         <v>500</v>
       </c>
+      <c r="C12" t="n">
+        <v>0.0008608396165072918</v>
+      </c>
+      <c r="D12" t="n">
+        <v>0.02177607826888561</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0.955967128276825</v>
+      </c>
+      <c r="F12" t="n">
+        <v>0.98252566631802</v>
+      </c>
+      <c r="G12" t="n">
+        <v>0.0008991091744974256</v>
+      </c>
+      <c r="H12" t="n">
+        <v>0.02251358516514301</v>
+      </c>
+      <c r="I12" t="n">
+        <v>0.8851202130317688</v>
+      </c>
+      <c r="J12" t="n">
+        <v>0.9601682828136121</v>
+      </c>
+      <c r="K12" t="n">
+        <v>0.9476137931034483</v>
+      </c>
+      <c r="L12" t="n">
+        <v>0.000822570058517158</v>
+      </c>
+      <c r="M12" t="n">
+        <v>0.02103856950998306</v>
+      </c>
+      <c r="N12" t="n">
+        <v>0.8792786598205566</v>
+      </c>
+      <c r="O12" t="n">
+        <v>0.9581929367349344</v>
+      </c>
+      <c r="P12" t="n">
+        <v>0.9573057471264368</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
@@ -528,6 +1060,48 @@
       <c r="B13" t="n">
         <v>600</v>
       </c>
+      <c r="C13" t="n">
+        <v>0.001464803703129292</v>
+      </c>
+      <c r="D13" t="n">
+        <v>0.02897233888506889</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0.9248795509338379</v>
+      </c>
+      <c r="F13" t="n">
+        <v>0.972471400217203</v>
+      </c>
+      <c r="G13" t="n">
+        <v>0.001680489163845778</v>
+      </c>
+      <c r="H13" t="n">
+        <v>0.03160833939909935</v>
+      </c>
+      <c r="I13" t="n">
+        <v>0.7874196171760559</v>
+      </c>
+      <c r="J13" t="n">
+        <v>0.9357196644409665</v>
+      </c>
+      <c r="K13" t="n">
+        <v>0.8715694779116466</v>
+      </c>
+      <c r="L13" t="n">
+        <v>0.001249118475243449</v>
+      </c>
+      <c r="M13" t="n">
+        <v>0.02633633650839329</v>
+      </c>
+      <c r="N13" t="n">
+        <v>0.8172802329063416</v>
+      </c>
+      <c r="O13" t="n">
+        <v>0.9289166084479644</v>
+      </c>
+      <c r="P13" t="n">
+        <v>0.9085357429718875</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
@@ -536,6 +1110,48 @@
       <c r="B14" t="n">
         <v>700</v>
       </c>
+      <c r="C14" t="n">
+        <v>0.002389669185504317</v>
+      </c>
+      <c r="D14" t="n">
+        <v>0.03807216137647629</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0.8782468438148499</v>
+      </c>
+      <c r="F14" t="n">
+        <v>0.9564755790613853</v>
+      </c>
+      <c r="G14" t="n">
+        <v>0.002549843862652779</v>
+      </c>
+      <c r="H14" t="n">
+        <v>0.03970887139439583</v>
+      </c>
+      <c r="I14" t="n">
+        <v>0.677301287651062</v>
+      </c>
+      <c r="J14" t="n">
+        <v>0.9047623528291348</v>
+      </c>
+      <c r="K14" t="n">
+        <v>0.7850611211573237</v>
+      </c>
+      <c r="L14" t="n">
+        <v>0.002229494508355856</v>
+      </c>
+      <c r="M14" t="n">
+        <v>0.03643545880913734</v>
+      </c>
+      <c r="N14" t="n">
+        <v>0.6760022044181824</v>
+      </c>
+      <c r="O14" t="n">
+        <v>0.8601268445940187</v>
+      </c>
+      <c r="P14" t="n">
+        <v>0.8222329113924051</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
@@ -544,6 +1160,48 @@
       <c r="B15" t="n">
         <v>800</v>
       </c>
+      <c r="C15" t="n">
+        <v>0.002603583736345172</v>
+      </c>
+      <c r="D15" t="n">
+        <v>0.03797288984060287</v>
+      </c>
+      <c r="E15" t="n">
+        <v>0.8675192594528198</v>
+      </c>
+      <c r="F15" t="n">
+        <v>0.9504576299235307</v>
+      </c>
+      <c r="G15" t="n">
+        <v>0.002639835234731436</v>
+      </c>
+      <c r="H15" t="n">
+        <v>0.03903555497527122</v>
+      </c>
+      <c r="I15" t="n">
+        <v>0.6663165688514709</v>
+      </c>
+      <c r="J15" t="n">
+        <v>0.8853132260274534</v>
+      </c>
+      <c r="K15" t="n">
+        <v>0.7801466666666667</v>
+      </c>
+      <c r="L15" t="n">
+        <v>0.002567332005128264</v>
+      </c>
+      <c r="M15" t="n">
+        <v>0.03691022470593452</v>
+      </c>
+      <c r="N15" t="n">
+        <v>0.626133143901825</v>
+      </c>
+      <c r="O15" t="n">
+        <v>0.8898648915483524</v>
+      </c>
+      <c r="P15" t="n">
+        <v>0.815738</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
@@ -552,6 +1210,48 @@
       <c r="B16" t="n">
         <v>100</v>
       </c>
+      <c r="C16" t="n">
+        <v>0.0002396261261310428</v>
+      </c>
+      <c r="D16" t="n">
+        <v>0.01086346432566643</v>
+      </c>
+      <c r="E16" t="n">
+        <v>0.9876270890235901</v>
+      </c>
+      <c r="F16" t="n">
+        <v>0.9945821425359497</v>
+      </c>
+      <c r="G16" t="n">
+        <v>0.0002860414097085595</v>
+      </c>
+      <c r="H16" t="n">
+        <v>0.01224200893193483</v>
+      </c>
+      <c r="I16" t="n">
+        <v>0.9622203707695007</v>
+      </c>
+      <c r="J16" t="n">
+        <v>0.9846588510496763</v>
+      </c>
+      <c r="K16" t="n">
+        <v>0.9974315789473684</v>
+      </c>
+      <c r="L16" t="n">
+        <v>0.0001932108716573566</v>
+      </c>
+      <c r="M16" t="n">
+        <v>0.009484920650720596</v>
+      </c>
+      <c r="N16" t="n">
+        <v>0.9706708192825317</v>
+      </c>
+      <c r="O16" t="n">
+        <v>0.9875624879103779</v>
+      </c>
+      <c r="P16" t="n">
+        <v>0.9991747368421052</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
@@ -560,6 +1260,48 @@
       <c r="B17" t="n">
         <v>200</v>
       </c>
+      <c r="C17" t="n">
+        <v>0.001191723393276334</v>
+      </c>
+      <c r="D17" t="n">
+        <v>0.02500093914568424</v>
+      </c>
+      <c r="E17" t="n">
+        <v>0.9395232200622559</v>
+      </c>
+      <c r="F17" t="n">
+        <v>0.9805046191524158</v>
+      </c>
+      <c r="G17" t="n">
+        <v>0.001127509516663849</v>
+      </c>
+      <c r="H17" t="n">
+        <v>0.02515974454581738</v>
+      </c>
+      <c r="I17" t="n">
+        <v>0.8550737500190735</v>
+      </c>
+      <c r="J17" t="n">
+        <v>0.9662756707778629</v>
+      </c>
+      <c r="K17" t="n">
+        <v>0.9211626373626374</v>
+      </c>
+      <c r="L17" t="n">
+        <v>0.001255937502719462</v>
+      </c>
+      <c r="M17" t="n">
+        <v>0.02484214119613171</v>
+      </c>
+      <c r="N17" t="n">
+        <v>0.813849925994873</v>
+      </c>
+      <c r="O17" t="n">
+        <v>0.9547950049292157</v>
+      </c>
+      <c r="P17" t="n">
+        <v>0.9083032967032967</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
@@ -568,6 +1310,48 @@
       <c r="B18" t="n">
         <v>300</v>
       </c>
+      <c r="C18" t="n">
+        <v>0.002443831646814942</v>
+      </c>
+      <c r="D18" t="n">
+        <v>0.036783367395401</v>
+      </c>
+      <c r="E18" t="n">
+        <v>0.8772798776626587</v>
+      </c>
+      <c r="F18" t="n">
+        <v>0.9597380923046542</v>
+      </c>
+      <c r="G18" t="n">
+        <v>0.002483118558302522</v>
+      </c>
+      <c r="H18" t="n">
+        <v>0.03707503154873848</v>
+      </c>
+      <c r="I18" t="n">
+        <v>0.6865207552909851</v>
+      </c>
+      <c r="J18" t="n">
+        <v>0.9274261586355858</v>
+      </c>
+      <c r="K18" t="n">
+        <v>0.7957348659003831</v>
+      </c>
+      <c r="L18" t="n">
+        <v>0.002404544269666076</v>
+      </c>
+      <c r="M18" t="n">
+        <v>0.03649170696735382</v>
+      </c>
+      <c r="N18" t="n">
+        <v>0.6535372734069824</v>
+      </c>
+      <c r="O18" t="n">
+        <v>0.9264716091966327</v>
+      </c>
+      <c r="P18" t="n">
+        <v>0.7813501915708813</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
@@ -576,6 +1360,48 @@
       <c r="B19" t="n">
         <v>400</v>
       </c>
+      <c r="C19" t="n">
+        <v>0.001309755025431514</v>
+      </c>
+      <c r="D19" t="n">
+        <v>0.02784230932593346</v>
+      </c>
+      <c r="E19" t="n">
+        <v>0.9341155886650085</v>
+      </c>
+      <c r="F19" t="n">
+        <v>0.9699856550529078</v>
+      </c>
+      <c r="G19" t="n">
+        <v>0.001487252302467823</v>
+      </c>
+      <c r="H19" t="n">
+        <v>0.03017188981175423</v>
+      </c>
+      <c r="I19" t="n">
+        <v>0.8163894414901733</v>
+      </c>
+      <c r="J19" t="n">
+        <v>0.9211270304999265</v>
+      </c>
+      <c r="K19" t="n">
+        <v>0.8985349397590362</v>
+      </c>
+      <c r="L19" t="n">
+        <v>0.001132257981225848</v>
+      </c>
+      <c r="M19" t="n">
+        <v>0.02551273070275784</v>
+      </c>
+      <c r="N19" t="n">
+        <v>0.8392302393913269</v>
+      </c>
+      <c r="O19" t="n">
+        <v>0.9362788869073728</v>
+      </c>
+      <c r="P19" t="n">
+        <v>0.9265590361445784</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
@@ -584,6 +1410,48 @@
       <c r="B20" t="n">
         <v>500</v>
       </c>
+      <c r="C20" t="n">
+        <v>0.001177023979835212</v>
+      </c>
+      <c r="D20" t="n">
+        <v>0.02663296088576317</v>
+      </c>
+      <c r="E20" t="n">
+        <v>0.9405999779701233</v>
+      </c>
+      <c r="F20" t="n">
+        <v>0.971532229425398</v>
+      </c>
+      <c r="G20" t="n">
+        <v>0.001115042367018759</v>
+      </c>
+      <c r="H20" t="n">
+        <v>0.02617706544697285</v>
+      </c>
+      <c r="I20" t="n">
+        <v>0.863990306854248</v>
+      </c>
+      <c r="J20" t="n">
+        <v>0.9347546284352479</v>
+      </c>
+      <c r="K20" t="n">
+        <v>0.9320962025316456</v>
+      </c>
+      <c r="L20" t="n">
+        <v>0.001239005359821022</v>
+      </c>
+      <c r="M20" t="n">
+        <v>0.02708885446190834</v>
+      </c>
+      <c r="N20" t="n">
+        <v>0.8271213173866272</v>
+      </c>
+      <c r="O20" t="n">
+        <v>0.9261445806490216</v>
+      </c>
+      <c r="P20" t="n">
+        <v>0.9062278481012658</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
@@ -592,6 +1460,48 @@
       <c r="B21" t="n">
         <v>600</v>
       </c>
+      <c r="C21" t="n">
+        <v>0.001910411287099123</v>
+      </c>
+      <c r="D21" t="n">
+        <v>0.03406720981001854</v>
+      </c>
+      <c r="E21" t="n">
+        <v>0.9039182066917419</v>
+      </c>
+      <c r="F21" t="n">
+        <v>0.9577968903930719</v>
+      </c>
+      <c r="G21" t="n">
+        <v>0.002059438265860081</v>
+      </c>
+      <c r="H21" t="n">
+        <v>0.03570982813835144</v>
+      </c>
+      <c r="I21" t="n">
+        <v>0.7521361112594604</v>
+      </c>
+      <c r="J21" t="n">
+        <v>0.8947835110947954</v>
+      </c>
+      <c r="K21" t="n">
+        <v>0.8159377777777778</v>
+      </c>
+      <c r="L21" t="n">
+        <v>0.001761383842676878</v>
+      </c>
+      <c r="M21" t="n">
+        <v>0.03242459148168564</v>
+      </c>
+      <c r="N21" t="n">
+        <v>0.7557181119918823</v>
+      </c>
+      <c r="O21" t="n">
+        <v>0.8968544361108881</v>
+      </c>
+      <c r="P21" t="n">
+        <v>0.8609502222222222</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
@@ -600,6 +1510,48 @@
       <c r="B22" t="n">
         <v>700</v>
       </c>
+      <c r="C22" t="n">
+        <v>0.002361064543947577</v>
+      </c>
+      <c r="D22" t="n">
+        <v>0.03784457966685295</v>
+      </c>
+      <c r="E22" t="n">
+        <v>0.8816435933113098</v>
+      </c>
+      <c r="F22" t="n">
+        <v>0.9548384838536524</v>
+      </c>
+      <c r="G22" t="n">
+        <v>0.002577639184892178</v>
+      </c>
+      <c r="H22" t="n">
+        <v>0.03911040350794792</v>
+      </c>
+      <c r="I22" t="n">
+        <v>0.689908504486084</v>
+      </c>
+      <c r="J22" t="n">
+        <v>0.8979643785300859</v>
+      </c>
+      <c r="K22" t="n">
+        <v>0.7994985915492958</v>
+      </c>
+      <c r="L22" t="n">
+        <v>0.002144489903002977</v>
+      </c>
+      <c r="M22" t="n">
+        <v>0.03657875955104828</v>
+      </c>
+      <c r="N22" t="n">
+        <v>0.7050570845603943</v>
+      </c>
+      <c r="O22" t="n">
+        <v>0.8904067227418984</v>
+      </c>
+      <c r="P22" t="n">
+        <v>0.8235476861167002</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
@@ -608,6 +1560,48 @@
       <c r="B23" t="n">
         <v>800</v>
       </c>
+      <c r="C23" t="n">
+        <v>0.008533298969268799</v>
+      </c>
+      <c r="D23" t="n">
+        <v>0.07206673175096512</v>
+      </c>
+      <c r="E23" t="n">
+        <v>0.5711842775344849</v>
+      </c>
+      <c r="F23" t="n">
+        <v>0.8022317041302728</v>
+      </c>
+      <c r="G23" t="n">
+        <v>0.008539881557226181</v>
+      </c>
+      <c r="H23" t="n">
+        <v>0.07289567589759827</v>
+      </c>
+      <c r="I23" t="n">
+        <v>-0.02349770069122314</v>
+      </c>
+      <c r="J23" t="n">
+        <v>0.3982416099916356</v>
+      </c>
+      <c r="K23" t="n">
+        <v>0.5172007462686568</v>
+      </c>
+      <c r="L23" t="n">
+        <v>0.008526717312633991</v>
+      </c>
+      <c r="M23" t="n">
+        <v>0.07123778015375137</v>
+      </c>
+      <c r="N23" t="n">
+        <v>-0.1724344491958618</v>
+      </c>
+      <c r="O23" t="n">
+        <v>0.396307722094343</v>
+      </c>
+      <c r="P23" t="n">
+        <v>0.549523880597015</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
@@ -616,6 +1610,48 @@
       <c r="B24" t="n">
         <v>900</v>
       </c>
+      <c r="C24" t="n">
+        <v>0.009192894212901592</v>
+      </c>
+      <c r="D24" t="n">
+        <v>0.07575573027133942</v>
+      </c>
+      <c r="E24" t="n">
+        <v>0.5354150533676147</v>
+      </c>
+      <c r="F24" t="n">
+        <v>0.7800661373618649</v>
+      </c>
+      <c r="G24" t="n">
+        <v>0.008096649311482906</v>
+      </c>
+      <c r="H24" t="n">
+        <v>0.07334316521883011</v>
+      </c>
+      <c r="I24" t="n">
+        <v>0.02781212329864502</v>
+      </c>
+      <c r="J24" t="n">
+        <v>0.3562100665297129</v>
+      </c>
+      <c r="K24" t="n">
+        <v>0.488641975308642</v>
+      </c>
+      <c r="L24" t="n">
+        <v>0.0102891381829977</v>
+      </c>
+      <c r="M24" t="n">
+        <v>0.07816829532384872</v>
+      </c>
+      <c r="N24" t="n">
+        <v>-0.4099929332733154</v>
+      </c>
+      <c r="O24" t="n">
+        <v>0.2878204550409328</v>
+      </c>
+      <c r="P24" t="n">
+        <v>0.5045537918871252</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
@@ -624,6 +1660,48 @@
       <c r="B25" t="n">
         <v>1000</v>
       </c>
+      <c r="C25" t="n">
+        <v>0.01180524006485939</v>
+      </c>
+      <c r="D25" t="n">
+        <v>0.08410299569368362</v>
+      </c>
+      <c r="E25" t="n">
+        <v>0.4015234112739563</v>
+      </c>
+      <c r="F25" t="n">
+        <v>0.7456228854069296</v>
+      </c>
+      <c r="G25" t="n">
+        <v>0.008959027007222176</v>
+      </c>
+      <c r="H25" t="n">
+        <v>0.07631316781044006</v>
+      </c>
+      <c r="I25" t="n">
+        <v>-0.07506239414215088</v>
+      </c>
+      <c r="J25" t="n">
+        <v>0.2598465108947858</v>
+      </c>
+      <c r="K25" t="n">
+        <v>0.4800366101694915</v>
+      </c>
+      <c r="L25" t="n">
+        <v>0.01465145219117403</v>
+      </c>
+      <c r="M25" t="n">
+        <v>0.09189283102750778</v>
+      </c>
+      <c r="N25" t="n">
+        <v>-1.015522003173828</v>
+      </c>
+      <c r="O25" t="n">
+        <v>0.159042469140758</v>
+      </c>
+      <c r="P25" t="n">
+        <v>0.4539857627118644</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
@@ -632,6 +1710,48 @@
       <c r="B26" t="n">
         <v>100</v>
       </c>
+      <c r="C26" t="n">
+        <v>0.0001941171212820336</v>
+      </c>
+      <c r="D26" t="n">
+        <v>0.01013431791216135</v>
+      </c>
+      <c r="E26" t="n">
+        <v>0.9901420474052429</v>
+      </c>
+      <c r="F26" t="n">
+        <v>0.9952429749076974</v>
+      </c>
+      <c r="G26" t="n">
+        <v>0.0002555973769631237</v>
+      </c>
+      <c r="H26" t="n">
+        <v>0.01194474473595619</v>
+      </c>
+      <c r="I26" t="n">
+        <v>0.9673985242843628</v>
+      </c>
+      <c r="J26" t="n">
+        <v>0.9840206159853327</v>
+      </c>
+      <c r="K26" t="n">
+        <v>1</v>
+      </c>
+      <c r="L26" t="n">
+        <v>0.0001326368656009436</v>
+      </c>
+      <c r="M26" t="n">
+        <v>0.008323892019689083</v>
+      </c>
+      <c r="N26" t="n">
+        <v>0.9807335138320923</v>
+      </c>
+      <c r="O26" t="n">
+        <v>0.9910167770919259</v>
+      </c>
+      <c r="P26" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
@@ -640,6 +1760,48 @@
       <c r="B27" t="n">
         <v>200</v>
       </c>
+      <c r="C27" t="n">
+        <v>0.0009422604343853891</v>
+      </c>
+      <c r="D27" t="n">
+        <v>0.02276858128607273</v>
+      </c>
+      <c r="E27" t="n">
+        <v>0.9522553682327271</v>
+      </c>
+      <c r="F27" t="n">
+        <v>0.9841751260970938</v>
+      </c>
+      <c r="G27" t="n">
+        <v>0.001113652368076146</v>
+      </c>
+      <c r="H27" t="n">
+        <v>0.02528081461787224</v>
+      </c>
+      <c r="I27" t="n">
+        <v>0.8622347712516785</v>
+      </c>
+      <c r="J27" t="n">
+        <v>0.9637911017277719</v>
+      </c>
+      <c r="K27" t="n">
+        <v>0.9237036144578313</v>
+      </c>
+      <c r="L27" t="n">
+        <v>0.0007708686753176153</v>
+      </c>
+      <c r="M27" t="n">
+        <v>0.02025634422898293</v>
+      </c>
+      <c r="N27" t="n">
+        <v>0.8913840055465698</v>
+      </c>
+      <c r="O27" t="n">
+        <v>0.9689304551839235</v>
+      </c>
+      <c r="P27" t="n">
+        <v>0.9635060240963855</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
@@ -648,6 +1810,48 @@
       <c r="B28" t="n">
         <v>300</v>
       </c>
+      <c r="C28" t="n">
+        <v>0.001932709128595889</v>
+      </c>
+      <c r="D28" t="n">
+        <v>0.03379401192069054</v>
+      </c>
+      <c r="E28" t="n">
+        <v>0.9040275812149048</v>
+      </c>
+      <c r="F28" t="n">
+        <v>0.9645371063890603</v>
+      </c>
+      <c r="G28" t="n">
+        <v>0.001948001561686397</v>
+      </c>
+      <c r="H28" t="n">
+        <v>0.03458933159708977</v>
+      </c>
+      <c r="I28" t="n">
+        <v>0.7654044628143311</v>
+      </c>
+      <c r="J28" t="n">
+        <v>0.932256020304623</v>
+      </c>
+      <c r="K28" t="n">
+        <v>0.846148523206751</v>
+      </c>
+      <c r="L28" t="n">
+        <v>0.001917416579090059</v>
+      </c>
+      <c r="M28" t="n">
+        <v>0.0329986959695816</v>
+      </c>
+      <c r="N28" t="n">
+        <v>0.7385478019714355</v>
+      </c>
+      <c r="O28" t="n">
+        <v>0.9309573801853047</v>
+      </c>
+      <c r="P28" t="n">
+        <v>0.8456101265822785</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
@@ -656,6 +1860,48 @@
       <c r="B29" t="n">
         <v>400</v>
       </c>
+      <c r="C29" t="n">
+        <v>0.00275109987705946</v>
+      </c>
+      <c r="D29" t="n">
+        <v>0.04248739033937454</v>
+      </c>
+      <c r="E29" t="n">
+        <v>0.8644626140594482</v>
+      </c>
+      <c r="F29" t="n">
+        <v>0.9512554613904457</v>
+      </c>
+      <c r="G29" t="n">
+        <v>0.003036394249647856</v>
+      </c>
+      <c r="H29" t="n">
+        <v>0.04473144933581352</v>
+      </c>
+      <c r="I29" t="n">
+        <v>0.6439365744590759</v>
+      </c>
+      <c r="J29" t="n">
+        <v>0.8993608976812304</v>
+      </c>
+      <c r="K29" t="n">
+        <v>0.7190413333333333</v>
+      </c>
+      <c r="L29" t="n">
+        <v>0.002465805737301707</v>
+      </c>
+      <c r="M29" t="n">
+        <v>0.04024333506822586</v>
+      </c>
+      <c r="N29" t="n">
+        <v>0.6693938374519348</v>
+      </c>
+      <c r="O29" t="n">
+        <v>0.9116856232860465</v>
+      </c>
+      <c r="P29" t="n">
+        <v>0.7816893333333333</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
@@ -664,6 +1910,48 @@
       <c r="B30" t="n">
         <v>500</v>
       </c>
+      <c r="C30" t="n">
+        <v>0.0009949040831997991</v>
+      </c>
+      <c r="D30" t="n">
+        <v>0.02356419898569584</v>
+      </c>
+      <c r="E30" t="n">
+        <v>0.950535774230957</v>
+      </c>
+      <c r="F30" t="n">
+        <v>0.9777365881162159</v>
+      </c>
+      <c r="G30" t="n">
+        <v>0.0009696782799437642</v>
+      </c>
+      <c r="H30" t="n">
+        <v>0.02288033068180084</v>
+      </c>
+      <c r="I30" t="n">
+        <v>0.8877173066139221</v>
+      </c>
+      <c r="J30" t="n">
+        <v>0.9590851047602796</v>
+      </c>
+      <c r="K30" t="n">
+        <v>0.9396777464788733</v>
+      </c>
+      <c r="L30" t="n">
+        <v>0.001020130002871156</v>
+      </c>
+      <c r="M30" t="n">
+        <v>0.02424806542694569</v>
+      </c>
+      <c r="N30" t="n">
+        <v>0.8658238053321838</v>
+      </c>
+      <c r="O30" t="n">
+        <v>0.9455270361682226</v>
+      </c>
+      <c r="P30" t="n">
+        <v>0.9434095774647887</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
@@ -672,6 +1960,48 @@
       <c r="B31" t="n">
         <v>600</v>
       </c>
+      <c r="C31" t="n">
+        <v>0.001617467263713479</v>
+      </c>
+      <c r="D31" t="n">
+        <v>0.03173508867621422</v>
+      </c>
+      <c r="E31" t="n">
+        <v>0.9194657206535339</v>
+      </c>
+      <c r="F31" t="n">
+        <v>0.971807935191467</v>
+      </c>
+      <c r="G31" t="n">
+        <v>0.001640330534428358</v>
+      </c>
+      <c r="H31" t="n">
+        <v>0.03136192262172699</v>
+      </c>
+      <c r="I31" t="n">
+        <v>0.8130759596824646</v>
+      </c>
+      <c r="J31" t="n">
+        <v>0.9343731719242557</v>
+      </c>
+      <c r="K31" t="n">
+        <v>0.8756318407960199</v>
+      </c>
+      <c r="L31" t="n">
+        <v>0.001594603876583278</v>
+      </c>
+      <c r="M31" t="n">
+        <v>0.03210825845599174</v>
+      </c>
+      <c r="N31" t="n">
+        <v>0.7920180559158325</v>
+      </c>
+      <c r="O31" t="n">
+        <v>0.9302711952371452</v>
+      </c>
+      <c r="P31" t="n">
+        <v>0.8900417910447761</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
@@ -680,6 +2010,48 @@
       <c r="B32" t="n">
         <v>700</v>
       </c>
+      <c r="C32" t="n">
+        <v>0.001406809547916055</v>
+      </c>
+      <c r="D32" t="n">
+        <v>0.02812712453305721</v>
+      </c>
+      <c r="E32" t="n">
+        <v>0.9306097626686096</v>
+      </c>
+      <c r="F32" t="n">
+        <v>0.9735406579723819</v>
+      </c>
+      <c r="G32" t="n">
+        <v>0.00158900732640177</v>
+      </c>
+      <c r="H32" t="n">
+        <v>0.03048992343246937</v>
+      </c>
+      <c r="I32" t="n">
+        <v>0.8201726675033569</v>
+      </c>
+      <c r="J32" t="n">
+        <v>0.9398774578930679</v>
+      </c>
+      <c r="K32" t="n">
+        <v>0.8740281179138322</v>
+      </c>
+      <c r="L32" t="n">
+        <v>0.001224611885845661</v>
+      </c>
+      <c r="M32" t="n">
+        <v>0.02576432377099991</v>
+      </c>
+      <c r="N32" t="n">
+        <v>0.8423815369606018</v>
+      </c>
+      <c r="O32" t="n">
+        <v>0.9418685687636226</v>
+      </c>
+      <c r="P32" t="n">
+        <v>0.9213233560090703</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
@@ -688,6 +2060,48 @@
       <c r="B33" t="n">
         <v>800</v>
       </c>
+      <c r="C33" t="n">
+        <v>0.008590659126639366</v>
+      </c>
+      <c r="D33" t="n">
+        <v>0.07320494949817657</v>
+      </c>
+      <c r="E33" t="n">
+        <v>0.5765597820281982</v>
+      </c>
+      <c r="F33" t="n">
+        <v>0.7904659339666478</v>
+      </c>
+      <c r="G33" t="n">
+        <v>0.008294906467199326</v>
+      </c>
+      <c r="H33" t="n">
+        <v>0.07306228578090668</v>
+      </c>
+      <c r="I33" t="n">
+        <v>0.06933635473251343</v>
+      </c>
+      <c r="J33" t="n">
+        <v>0.4075484416656182</v>
+      </c>
+      <c r="K33" t="n">
+        <v>0.5055161016949152</v>
+      </c>
+      <c r="L33" t="n">
+        <v>0.008886410854756832</v>
+      </c>
+      <c r="M33" t="n">
+        <v>0.07334761321544647</v>
+      </c>
+      <c r="N33" t="n">
+        <v>-0.1355191469192505</v>
+      </c>
+      <c r="O33" t="n">
+        <v>0.3480899311299417</v>
+      </c>
+      <c r="P33" t="n">
+        <v>0.5273601694915254</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
@@ -696,6 +2110,48 @@
       <c r="B34" t="n">
         <v>900</v>
       </c>
+      <c r="C34" t="n">
+        <v>0.01227636821568012</v>
+      </c>
+      <c r="D34" t="n">
+        <v>0.08514857292175293</v>
+      </c>
+      <c r="E34" t="n">
+        <v>0.3891339302062988</v>
+      </c>
+      <c r="F34" t="n">
+        <v>0.76759205134963</v>
+      </c>
+      <c r="G34" t="n">
+        <v>0.01113146916031837</v>
+      </c>
+      <c r="H34" t="n">
+        <v>0.08282584697008133</v>
+      </c>
+      <c r="I34" t="n">
+        <v>-0.2457824945449829</v>
+      </c>
+      <c r="J34" t="n">
+        <v>0.3364958366609679</v>
+      </c>
+      <c r="K34" t="n">
+        <v>0.4726626262626263</v>
+      </c>
+      <c r="L34" t="n">
+        <v>0.01342126540839672</v>
+      </c>
+      <c r="M34" t="n">
+        <v>0.08747131377458572</v>
+      </c>
+      <c r="N34" t="n">
+        <v>-0.7014247179031372</v>
+      </c>
+      <c r="O34" t="n">
+        <v>0.3380085741660041</v>
+      </c>
+      <c r="P34" t="n">
+        <v>0.4818092929292929</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
@@ -704,6 +2160,48 @@
       <c r="B35" t="n">
         <v>1000</v>
       </c>
+      <c r="C35" t="n">
+        <v>0.009412676095962524</v>
+      </c>
+      <c r="D35" t="n">
+        <v>0.07872644811868668</v>
+      </c>
+      <c r="E35" t="n">
+        <v>0.5312134027481079</v>
+      </c>
+      <c r="F35" t="n">
+        <v>0.75765804276833</v>
+      </c>
+      <c r="G35" t="n">
+        <v>0.009461012668907642</v>
+      </c>
+      <c r="H35" t="n">
+        <v>0.07970425486564636</v>
+      </c>
+      <c r="I35" t="n">
+        <v>-0.05573189258575439</v>
+      </c>
+      <c r="J35" t="n">
+        <v>0.2166763655163683</v>
+      </c>
+      <c r="K35" t="n">
+        <v>0.4484956862745098</v>
+      </c>
+      <c r="L35" t="n">
+        <v>0.009364341385662556</v>
+      </c>
+      <c r="M35" t="n">
+        <v>0.07774863392114639</v>
+      </c>
+      <c r="N35" t="n">
+        <v>-0.1874126195907593</v>
+      </c>
+      <c r="O35" t="n">
+        <v>0.197046070726674</v>
+      </c>
+      <c r="P35" t="n">
+        <v>0.4776337254901961</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
@@ -712,6 +2210,48 @@
       <c r="B36" t="n">
         <v>1100</v>
       </c>
+      <c r="C36" t="n">
+        <v>0.01073214039206505</v>
+      </c>
+      <c r="D36" t="n">
+        <v>0.08311666548252106</v>
+      </c>
+      <c r="E36" t="n">
+        <v>0.469352126121521</v>
+      </c>
+      <c r="F36" t="n">
+        <v>0.7412748906337231</v>
+      </c>
+      <c r="G36" t="n">
+        <v>0.009580489248037338</v>
+      </c>
+      <c r="H36" t="n">
+        <v>0.08017999678850174</v>
+      </c>
+      <c r="I36" t="n">
+        <v>-0.07088327407836914</v>
+      </c>
+      <c r="J36" t="n">
+        <v>0.1927800869301697</v>
+      </c>
+      <c r="K36" t="n">
+        <v>0.4467350096711799</v>
+      </c>
+      <c r="L36" t="n">
+        <v>0.01188379060477018</v>
+      </c>
+      <c r="M36" t="n">
+        <v>0.08605333417654037</v>
+      </c>
+      <c r="N36" t="n">
+        <v>-0.5061037540435791</v>
+      </c>
+      <c r="O36" t="n">
+        <v>0.09692765454801605</v>
+      </c>
+      <c r="P36" t="n">
+        <v>0.4509949709864604</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
@@ -720,6 +2260,48 @@
       <c r="B37" t="n">
         <v>100</v>
       </c>
+      <c r="C37" t="n">
+        <v>0.0002494773361831903</v>
+      </c>
+      <c r="D37" t="n">
+        <v>0.01128297578543425</v>
+      </c>
+      <c r="E37" t="n">
+        <v>0.9876715540885925</v>
+      </c>
+      <c r="F37" t="n">
+        <v>0.9942647637414557</v>
+      </c>
+      <c r="G37" t="n">
+        <v>0.0002860545937437564</v>
+      </c>
+      <c r="H37" t="n">
+        <v>0.01230875216424465</v>
+      </c>
+      <c r="I37" t="n">
+        <v>0.9655531048774719</v>
+      </c>
+      <c r="J37" t="n">
+        <v>0.9851820964482781</v>
+      </c>
+      <c r="K37" t="n">
+        <v>0.9979341772151898</v>
+      </c>
+      <c r="L37" t="n">
+        <v>0.000212900064070709</v>
+      </c>
+      <c r="M37" t="n">
+        <v>0.01025720220059156</v>
+      </c>
+      <c r="N37" t="n">
+        <v>0.9707746505737305</v>
+      </c>
+      <c r="O37" t="n">
+        <v>0.9890973775130262</v>
+      </c>
+      <c r="P37" t="n">
+        <v>0.9992708860759494</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
@@ -728,6 +2310,48 @@
       <c r="B38" t="n">
         <v>200</v>
       </c>
+      <c r="C38" t="n">
+        <v>0.001641537062823772</v>
+      </c>
+      <c r="D38" t="n">
+        <v>0.02994745224714279</v>
+      </c>
+      <c r="E38" t="n">
+        <v>0.9199314713478088</v>
+      </c>
+      <c r="F38" t="n">
+        <v>0.9749932604025695</v>
+      </c>
+      <c r="G38" t="n">
+        <v>0.001730677206069231</v>
+      </c>
+      <c r="H38" t="n">
+        <v>0.03089800477027893</v>
+      </c>
+      <c r="I38" t="n">
+        <v>0.7979757785797119</v>
+      </c>
+      <c r="J38" t="n">
+        <v>0.9525588843258344</v>
+      </c>
+      <c r="K38" t="n">
+        <v>0.8387466666666666</v>
+      </c>
+      <c r="L38" t="n">
+        <v>0.001552396803162992</v>
+      </c>
+      <c r="M38" t="n">
+        <v>0.0289969015866518</v>
+      </c>
+      <c r="N38" t="n">
+        <v>0.7932721972465515</v>
+      </c>
+      <c r="O38" t="n">
+        <v>0.9555078188951914</v>
+      </c>
+      <c r="P38" t="n">
+        <v>0.879816</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
@@ -736,6 +2360,48 @@
       <c r="B39" t="n">
         <v>300</v>
       </c>
+      <c r="C39" t="n">
+        <v>0.001705688191577792</v>
+      </c>
+      <c r="D39" t="n">
+        <v>0.03081709891557693</v>
+      </c>
+      <c r="E39" t="n">
+        <v>0.9173406362533569</v>
+      </c>
+      <c r="F39" t="n">
+        <v>0.9682388777316875</v>
+      </c>
+      <c r="G39" t="n">
+        <v>0.00184880755841732</v>
+      </c>
+      <c r="H39" t="n">
+        <v>0.03208073228597641</v>
+      </c>
+      <c r="I39" t="n">
+        <v>0.7894091606140137</v>
+      </c>
+      <c r="J39" t="n">
+        <v>0.9395700674331299</v>
+      </c>
+      <c r="K39" t="n">
+        <v>0.8568244131455399</v>
+      </c>
+      <c r="L39" t="n">
+        <v>0.001562568824738264</v>
+      </c>
+      <c r="M39" t="n">
+        <v>0.02955346554517746</v>
+      </c>
+      <c r="N39" t="n">
+        <v>0.7987985610961914</v>
+      </c>
+      <c r="O39" t="n">
+        <v>0.9461055474974551</v>
+      </c>
+      <c r="P39" t="n">
+        <v>0.8781708920187793</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
@@ -744,6 +2410,48 @@
       <c r="B40" t="n">
         <v>400</v>
       </c>
+      <c r="C40" t="n">
+        <v>0.00110182398930192</v>
+      </c>
+      <c r="D40" t="n">
+        <v>0.0255321953445673</v>
+      </c>
+      <c r="E40" t="n">
+        <v>0.946565568447113</v>
+      </c>
+      <c r="F40" t="n">
+        <v>0.9746400689741934</v>
+      </c>
+      <c r="G40" t="n">
+        <v>0.001186257926747203</v>
+      </c>
+      <c r="H40" t="n">
+        <v>0.02714337594807148</v>
+      </c>
+      <c r="I40" t="n">
+        <v>0.8688326478004456</v>
+      </c>
+      <c r="J40" t="n">
+        <v>0.9412919220995316</v>
+      </c>
+      <c r="K40" t="n">
+        <v>0.939179104477612</v>
+      </c>
+      <c r="L40" t="n">
+        <v>0.001017389935441315</v>
+      </c>
+      <c r="M40" t="n">
+        <v>0.02392101101577282</v>
+      </c>
+      <c r="N40" t="n">
+        <v>0.8716713190078735</v>
+      </c>
+      <c r="O40" t="n">
+        <v>0.9452996805127607</v>
+      </c>
+      <c r="P40" t="n">
+        <v>0.9271537313432836</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
@@ -752,6 +2460,48 @@
       <c r="B41" t="n">
         <v>500</v>
       </c>
+      <c r="C41" t="n">
+        <v>0.004108880646526814</v>
+      </c>
+      <c r="D41" t="n">
+        <v>0.05113860964775085</v>
+      </c>
+      <c r="E41" t="n">
+        <v>0.8001734018325806</v>
+      </c>
+      <c r="F41" t="n">
+        <v>0.9011880905574658</v>
+      </c>
+      <c r="G41" t="n">
+        <v>0.003913081716746092</v>
+      </c>
+      <c r="H41" t="n">
+        <v>0.05065933614969254</v>
+      </c>
+      <c r="I41" t="n">
+        <v>0.5759485960006714</v>
+      </c>
+      <c r="J41" t="n">
+        <v>0.7686914220547015</v>
+      </c>
+      <c r="K41" t="n">
+        <v>0.6611530158730159</v>
+      </c>
+      <c r="L41" t="n">
+        <v>0.004304679576307535</v>
+      </c>
+      <c r="M41" t="n">
+        <v>0.05161788687109947</v>
+      </c>
+      <c r="N41" t="n">
+        <v>0.4705640077590942</v>
+      </c>
+      <c r="O41" t="n">
+        <v>0.7243144996311671</v>
+      </c>
+      <c r="P41" t="n">
+        <v>0.6498526984126984</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
@@ -760,6 +2510,48 @@
       <c r="B42" t="n">
         <v>600</v>
       </c>
+      <c r="C42" t="n">
+        <v>0.005651506129652262</v>
+      </c>
+      <c r="D42" t="n">
+        <v>0.05751378834247589</v>
+      </c>
+      <c r="E42" t="n">
+        <v>0.7256849408149719</v>
+      </c>
+      <c r="F42" t="n">
+        <v>0.8628254001171091</v>
+      </c>
+      <c r="G42" t="n">
+        <v>0.006222108379006386</v>
+      </c>
+      <c r="H42" t="n">
+        <v>0.06015889346599579</v>
+      </c>
+      <c r="I42" t="n">
+        <v>0.3397810459136963</v>
+      </c>
+      <c r="J42" t="n">
+        <v>0.638390301273661</v>
+      </c>
+      <c r="K42" t="n">
+        <v>0.6084813559322034</v>
+      </c>
+      <c r="L42" t="n">
+        <v>0.00508090341463685</v>
+      </c>
+      <c r="M42" t="n">
+        <v>0.05486868321895599</v>
+      </c>
+      <c r="N42" t="n">
+        <v>0.3855623006820679</v>
+      </c>
+      <c r="O42" t="n">
+        <v>0.6740756451814192</v>
+      </c>
+      <c r="P42" t="n">
+        <v>0.6313344632768362</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
@@ -768,6 +2560,48 @@
       <c r="B43" t="n">
         <v>700</v>
       </c>
+      <c r="C43" t="n">
+        <v>0.008500627242028713</v>
+      </c>
+      <c r="D43" t="n">
+        <v>0.07185973972082138</v>
+      </c>
+      <c r="E43" t="n">
+        <v>0.5898241400718689</v>
+      </c>
+      <c r="F43" t="n">
+        <v>0.8018530324228719</v>
+      </c>
+      <c r="G43" t="n">
+        <v>0.009390653111040592</v>
+      </c>
+      <c r="H43" t="n">
+        <v>0.07601743191480637</v>
+      </c>
+      <c r="I43" t="n">
+        <v>0.0155680775642395</v>
+      </c>
+      <c r="J43" t="n">
+        <v>0.4179966185680887</v>
+      </c>
+      <c r="K43" t="n">
+        <v>0.5068748051948052</v>
+      </c>
+      <c r="L43" t="n">
+        <v>0.007610601373016834</v>
+      </c>
+      <c r="M43" t="n">
+        <v>0.06770205497741699</v>
+      </c>
+      <c r="N43" t="n">
+        <v>0.09659624099731445</v>
+      </c>
+      <c r="O43" t="n">
+        <v>0.512966931121202</v>
+      </c>
+      <c r="P43" t="n">
+        <v>0.5629548051948052</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
@@ -776,6 +2610,48 @@
       <c r="B44" t="n">
         <v>800</v>
       </c>
+      <c r="C44" t="n">
+        <v>0.01014493871480227</v>
+      </c>
+      <c r="D44" t="n">
+        <v>0.08013581484556198</v>
+      </c>
+      <c r="E44" t="n">
+        <v>0.5123832225799561</v>
+      </c>
+      <c r="F44" t="n">
+        <v>0.7544383640960234</v>
+      </c>
+      <c r="G44" t="n">
+        <v>0.01079580467194319</v>
+      </c>
+      <c r="H44" t="n">
+        <v>0.0832710862159729</v>
+      </c>
+      <c r="I44" t="n">
+        <v>-0.1185755729675293</v>
+      </c>
+      <c r="J44" t="n">
+        <v>0.318506643605623</v>
+      </c>
+      <c r="K44" t="n">
+        <v>0.4497411764705883</v>
+      </c>
+      <c r="L44" t="n">
+        <v>0.009494074620306492</v>
+      </c>
+      <c r="M44" t="n">
+        <v>0.07700052857398987</v>
+      </c>
+      <c r="N44" t="n">
+        <v>-0.1142323017120361</v>
+      </c>
+      <c r="O44" t="n">
+        <v>0.321516233924613</v>
+      </c>
+      <c r="P44" t="n">
+        <v>0.4964401960784314</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
@@ -784,6 +2660,48 @@
       <c r="B45" t="n">
         <v>900</v>
       </c>
+      <c r="C45" t="n">
+        <v>0.01008006837219</v>
+      </c>
+      <c r="D45" t="n">
+        <v>0.08061196655035019</v>
+      </c>
+      <c r="E45" t="n">
+        <v>0.5148638486862183</v>
+      </c>
+      <c r="F45" t="n">
+        <v>0.7467395566707592</v>
+      </c>
+      <c r="G45" t="n">
+        <v>0.009851008653640747</v>
+      </c>
+      <c r="H45" t="n">
+        <v>0.08155625313520432</v>
+      </c>
+      <c r="I45" t="n">
+        <v>-0.01566159725189209</v>
+      </c>
+      <c r="J45" t="n">
+        <v>0.2934994743881567</v>
+      </c>
+      <c r="K45" t="n">
+        <v>0.4379706855791962</v>
+      </c>
+      <c r="L45" t="n">
+        <v>0.01030912715941668</v>
+      </c>
+      <c r="M45" t="n">
+        <v>0.07966768741607666</v>
+      </c>
+      <c r="N45" t="n">
+        <v>-0.1967244148254395</v>
+      </c>
+      <c r="O45" t="n">
+        <v>0.2913596143020148</v>
+      </c>
+      <c r="P45" t="n">
+        <v>0.4881172576832151</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
@@ -792,6 +2710,48 @@
       <c r="B46" t="n">
         <v>1000</v>
       </c>
+      <c r="C46" t="n">
+        <v>0.01273036375641823</v>
+      </c>
+      <c r="D46" t="n">
+        <v>0.08795434981584549</v>
+      </c>
+      <c r="E46" t="n">
+        <v>0.3859032988548279</v>
+      </c>
+      <c r="F46" t="n">
+        <v>0.7394833078534897</v>
+      </c>
+      <c r="G46" t="n">
+        <v>0.01162256579846144</v>
+      </c>
+      <c r="H46" t="n">
+        <v>0.08665031939744949</v>
+      </c>
+      <c r="I46" t="n">
+        <v>-0.191123366355896</v>
+      </c>
+      <c r="J46" t="n">
+        <v>0.2333688549551325</v>
+      </c>
+      <c r="K46" t="n">
+        <v>0.4329181395348837</v>
+      </c>
+      <c r="L46" t="n">
+        <v>0.01383815985172987</v>
+      </c>
+      <c r="M46" t="n">
+        <v>0.08925838023424149</v>
+      </c>
+      <c r="N46" t="n">
+        <v>-0.603289008140564</v>
+      </c>
+      <c r="O46" t="n">
+        <v>0.2667808034159986</v>
+      </c>
+      <c r="P46" t="n">
+        <v>0.4790418604651163</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
@@ -799,6 +2759,48 @@
       </c>
       <c r="B47" t="n">
         <v>1100</v>
+      </c>
+      <c r="C47" t="n">
+        <v>0.04652740433812141</v>
+      </c>
+      <c r="D47" t="n">
+        <v>0.1716067790985107</v>
+      </c>
+      <c r="E47" t="n">
+        <v>-1.243452548980713</v>
+      </c>
+      <c r="F47" t="n">
+        <v>0.5874166772222852</v>
+      </c>
+      <c r="G47" t="n">
+        <v>0.03466591611504555</v>
+      </c>
+      <c r="H47" t="n">
+        <v>0.1468899548053741</v>
+      </c>
+      <c r="I47" t="n">
+        <v>-2.558160305023193</v>
+      </c>
+      <c r="J47" t="n">
+        <v>0.04908176040328518</v>
+      </c>
+      <c r="K47" t="n">
+        <v>0.3038480186480186</v>
+      </c>
+      <c r="L47" t="n">
+        <v>0.05838889256119728</v>
+      </c>
+      <c r="M47" t="n">
+        <v>0.1963236033916473</v>
+      </c>
+      <c r="N47" t="n">
+        <v>-5.761658668518066</v>
+      </c>
+      <c r="O47" t="n">
+        <v>-0.01358557568019041</v>
+      </c>
+      <c r="P47" t="n">
+        <v>0.1986890442890443</v>
       </c>
     </row>
   </sheetData>
